--- a/Souq/src/price/Souq/excel_9_shorts.xlsx
+++ b/Souq/src/price/Souq/excel_9_shorts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,450 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SHORTS ALZIRA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-alzira-04-26-07-034-008.html</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>599,00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>299,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SHORTS SARJA SELENE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-sarja-selene-04-25-02-007-004.html</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>379,00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>169,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SHORTS SARJA SUZANE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-sarja-suzane-04-25-02-008-001.html</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>359,00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>159,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SHORTS TRICOT NIMUE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-tricot-nimue-04-24-12-001-054.html</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>459,00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>179,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BERMUDA LINDSAY</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/bermuda-lindsay-04-26-56-006-007.html</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>529,00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>238,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SHORTS REBECA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-rebeca-04-26-07-035-006.html</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>699,00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>349,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BERMUDA ANA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/bermuda-ana-04-26-56-005-001.html</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>529,00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>239,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SHORTS KAYLANE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-kaylane-04-26-07-031-054.html</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>279,00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>138,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SHORTS NORMA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-norma-04-23-13-001-002.html</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>499,00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>239,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SHORTS ZOE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-zoe-04-26-07-033-053.html</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>599,00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>229,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SHORTS DAGNY</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-dagny-04-26-07-028-054.html</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>599,00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>297,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Shorts</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/shorts.html?p=1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SHORTS RAQUEL</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/shorts-raquel-04-26-07-037-053.html</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>648,00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>318,00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
